--- a/InputData/land/FoFEtiL/Frac of Forestry Expenses that is Labor.xlsx
+++ b/InputData/land/FoFEtiL/Frac of Forestry Expenses that is Labor.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emily.Mangan\Dropbox\India EPS\InputData UPDATE FOR INDIA\land\FoFEtiL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\FoFEtiL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C00119B-44A0-4683-AB75-44312401E8B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="20100" windowHeight="7410"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="FoFEtiL" sheetId="2" r:id="rId2"/>
+    <sheet name="India Data" sheetId="3" r:id="rId2"/>
+    <sheet name="FoFEtiL" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Source:</t>
   </si>
@@ -37,38 +47,143 @@
     <t>Forest Management policy.</t>
   </si>
   <si>
-    <t>We currently assume that the money is split evenly between consumers</t>
-  </si>
-  <si>
-    <t>(workers hired to plant trees and manage forests) and industry (sales of</t>
-  </si>
-  <si>
     <t>Labor</t>
   </si>
   <si>
     <t>Fraction of Forestry Expenses</t>
   </si>
   <si>
-    <t>young trees, gardening tools, etc.)  Sales and income taxes are handled</t>
-  </si>
-  <si>
-    <t>in the Vensim model.</t>
-  </si>
-  <si>
     <t>Relevant expenses include tree planting</t>
   </si>
   <si>
-    <t>Based on assumption</t>
-  </si>
-  <si>
     <t>FoFEtiL Fraction of Forestry Expenses that is Labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In India, the costs for afforestation and reforestation and any improved forest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">management practices can be very region specific, as the drivers for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deforestation may vary by case. We take the case of the first REDD project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in India (East Khasi Hills REDD+ Project, Meghalaya) which is being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitored for benefits since implementation. The REDD+ mitigation </t>
+  </si>
+  <si>
+    <t>http://www.planvivo.org/docs/Khasi-Hills-PDD-Updated-2017.pdf</t>
+  </si>
+  <si>
+    <t>Table I5, Page 38</t>
+  </si>
+  <si>
+    <t>Mawphlang Welfare Society, Plan Vivo</t>
+  </si>
+  <si>
+    <t>Khasi Hills Community REDD+ Project, Version 3</t>
+  </si>
+  <si>
+    <t>REDD+ Mitigation Activities</t>
+  </si>
+  <si>
+    <t>Budget Item</t>
+  </si>
+  <si>
+    <t>UNITS AND UNIT COST</t>
+  </si>
+  <si>
+    <t>TOTAL FUNDS
+REQUIRED</t>
+  </si>
+  <si>
+    <t>Table I5: Annual Budget Scenario (2013)</t>
+  </si>
+  <si>
+    <t>Forest Protection</t>
+  </si>
+  <si>
+    <t>Fire   watchers,   fire   line   maintenance, patrolling $300 per village per year</t>
+  </si>
+  <si>
+    <t>Forest Restoration</t>
+  </si>
+  <si>
+    <t>$18 per hectare for ANR Treatment 
+based on labor costs x 620 hectares per year</t>
+  </si>
+  <si>
+    <t>Efficient Stoves</t>
+  </si>
+  <si>
+    <t>$15 per stove x 500 HH per year</t>
+  </si>
+  <si>
+    <t>Sub-total</t>
+  </si>
+  <si>
+    <t>Share of Labour</t>
+  </si>
+  <si>
+    <t>ANR = Assisted Natural Restoration</t>
+  </si>
+  <si>
+    <t>Source: http://www.planvivo.org/docs/Khasi-Hills-PDD-Updated-2017.pdf</t>
+  </si>
+  <si>
+    <t>Centre for Science and Environment</t>
+  </si>
+  <si>
+    <t>https://www.cseindia.org/rethinking-redd--9198</t>
+  </si>
+  <si>
+    <t>REDD+ Initiatives in India</t>
+  </si>
+  <si>
+    <t>Table 9, Page 26</t>
+  </si>
+  <si>
+    <t>where India is one of the countries with the highest no. of employees in forestry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tropical domain accounts for 81% of all employment, with a strong influence </t>
+  </si>
+  <si>
+    <t>from India.</t>
+  </si>
+  <si>
+    <t>activities in this project are quite labour intensive. We assume this to be</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0378112715002054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec 3.3, 'Employment in Forestry', Paras 1 and 3; Page 104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global trends in forest ownership, public income and expenditure on
+forestry and forestry employment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiteman et. Al </t>
+  </si>
+  <si>
+    <t>Forest Ecology and Management, 352 (2015) 99–108</t>
+  </si>
+  <si>
+    <t>representative for India in general. This is supported by the study by Whiteman et. al,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +199,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,19 +244,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -127,6 +309,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1658090</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EE9A81-B39C-442E-8ED6-F0533E59D9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="66675"/>
+          <a:ext cx="5306165" cy="5153744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,87 +680,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{A0A76C17-25AE-4185-86B2-E5584C7F32AB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5439C2-577D-49F5-90D0-F9DE3B068429}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUM(C4:C6)</f>
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12">
+        <f>SUM(C4:C5)/C7</f>
+        <v>0.79338842975206614</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -539,15 +996,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <f>'India Data'!C8</f>
+        <v>0.79338842975206614</v>
       </c>
     </row>
   </sheetData>
